--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H2">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I2">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J2">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.3442741098935</v>
+        <v>4.344454</v>
       </c>
       <c r="N2">
-        <v>4.3442741098935</v>
+        <v>8.688908</v>
       </c>
       <c r="O2">
-        <v>0.07459182210593297</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P2">
-        <v>0.07459182210593297</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q2">
-        <v>38.4376269115071</v>
+        <v>42.16633863861699</v>
       </c>
       <c r="R2">
-        <v>38.4376269115071</v>
+        <v>168.665354554468</v>
       </c>
       <c r="S2">
-        <v>0.0278502706672974</v>
+        <v>0.02599198950351709</v>
       </c>
       <c r="T2">
-        <v>0.0278502706672974</v>
+        <v>0.01734508102864251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H3">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I3">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J3">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.9104196133373</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N3">
-        <v>22.9104196133373</v>
+        <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3933752569338282</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P3">
-        <v>0.3933752569338282</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q3">
-        <v>202.7087009721683</v>
+        <v>234.7350467230338</v>
       </c>
       <c r="R3">
-        <v>202.7087009721683</v>
+        <v>1408.410280338203</v>
       </c>
       <c r="S3">
-        <v>0.1468741085834579</v>
+        <v>0.1446943478498991</v>
       </c>
       <c r="T3">
-        <v>0.1468741085834579</v>
+        <v>0.1448370383981274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H4">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I4">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J4">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.743134322622252</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N4">
-        <v>0.743134322622252</v>
+        <v>0.430342</v>
       </c>
       <c r="O4">
-        <v>0.01275972505225066</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P4">
-        <v>0.01275972505225066</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q4">
-        <v>6.575165175014688</v>
+        <v>1.392269047880333</v>
       </c>
       <c r="R4">
-        <v>6.575165175014688</v>
+        <v>8.353614287281999</v>
       </c>
       <c r="S4">
-        <v>0.004764085208172051</v>
+        <v>0.0008582163793902566</v>
       </c>
       <c r="T4">
-        <v>0.004764085208172051</v>
+        <v>0.0008590627107604403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +720,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H5">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I5">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J5">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.30518011884588</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N5">
-        <v>4.30518011884588</v>
+        <v>3.215092</v>
       </c>
       <c r="O5">
-        <v>0.07392057255954868</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P5">
-        <v>0.07392057255954868</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q5">
-        <v>38.09172787190735</v>
+        <v>10.40166443825533</v>
       </c>
       <c r="R5">
-        <v>38.09172787190735</v>
+        <v>62.409986629532</v>
       </c>
       <c r="S5">
-        <v>0.02759964692565514</v>
+        <v>0.00641174836675616</v>
       </c>
       <c r="T5">
-        <v>0.02759964692565514</v>
+        <v>0.006418071322028074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.84788250906419</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H6">
-        <v>8.84788250906419</v>
+        <v>19.411571</v>
       </c>
       <c r="I6">
-        <v>0.37336895494717</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J6">
-        <v>0.37336895494717</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.9376137592956</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N6">
-        <v>25.9376137592956</v>
+        <v>14.125759</v>
       </c>
       <c r="O6">
-        <v>0.4453526233484394</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P6">
-        <v>0.4453526233484394</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q6">
-        <v>229.4929591077342</v>
+        <v>45.70052895956483</v>
       </c>
       <c r="R6">
-        <v>229.4929591077342</v>
+        <v>274.203173757389</v>
       </c>
       <c r="S6">
-        <v>0.1662808435625874</v>
+        <v>0.02817051959864325</v>
       </c>
       <c r="T6">
-        <v>0.1662808435625874</v>
+        <v>0.02819829999881185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.61269008750774</v>
+        <v>9.705785499999999</v>
       </c>
       <c r="H7">
-        <v>3.61269008750774</v>
+        <v>19.411571</v>
       </c>
       <c r="I7">
-        <v>0.1524507497854908</v>
+        <v>0.3626960398572868</v>
       </c>
       <c r="J7">
-        <v>0.1524507497854908</v>
+        <v>0.3021399662106912</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3442741098935</v>
+        <v>26.1699</v>
       </c>
       <c r="N7">
-        <v>4.3442741098935</v>
+        <v>52.3398</v>
       </c>
       <c r="O7">
-        <v>0.07459182210593297</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P7">
-        <v>0.07459182210593297</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q7">
-        <v>15.69451601422876</v>
+        <v>253.99943595645</v>
       </c>
       <c r="R7">
-        <v>15.69451601422876</v>
+        <v>1015.9977438258</v>
       </c>
       <c r="S7">
-        <v>0.01137157920791543</v>
+        <v>0.156569218159081</v>
       </c>
       <c r="T7">
-        <v>0.01137157920791543</v>
+        <v>0.1044824127523209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H8">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I8">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J8">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.9104196133373</v>
+        <v>4.344454</v>
       </c>
       <c r="N8">
-        <v>22.9104196133373</v>
+        <v>8.688908</v>
       </c>
       <c r="O8">
-        <v>0.3933752569338282</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P8">
-        <v>0.3933752569338282</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q8">
-        <v>82.76824583774658</v>
+        <v>21.66668850367533</v>
       </c>
       <c r="R8">
-        <v>82.76824583774658</v>
+        <v>130.000131022052</v>
       </c>
       <c r="S8">
-        <v>0.05997035286662217</v>
+        <v>0.01335568508781427</v>
       </c>
       <c r="T8">
-        <v>0.05997035286662217</v>
+        <v>0.01336885581670218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H9">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I9">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J9">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.743134322622252</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N9">
-        <v>0.743134322622252</v>
+        <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.01275972505225066</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P9">
-        <v>0.01275972505225066</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q9">
-        <v>2.684714001024188</v>
+        <v>120.6159060152741</v>
       </c>
       <c r="R9">
-        <v>2.684714001024188</v>
+        <v>1085.543154137467</v>
       </c>
       <c r="S9">
-        <v>0.001945229651272323</v>
+        <v>0.07434952771154414</v>
       </c>
       <c r="T9">
-        <v>0.001945229651272323</v>
+        <v>0.1116342714147738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H10">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I10">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J10">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.30518011884588</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N10">
-        <v>4.30518011884588</v>
+        <v>0.430342</v>
       </c>
       <c r="O10">
-        <v>0.07392057255954868</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P10">
-        <v>0.07392057255954868</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q10">
-        <v>15.5532815402899</v>
+        <v>0.7154014492997779</v>
       </c>
       <c r="R10">
-        <v>15.5532815402899</v>
+        <v>6.438613043698</v>
       </c>
       <c r="S10">
-        <v>0.01126924671127597</v>
+        <v>0.0004409846233120947</v>
       </c>
       <c r="T10">
-        <v>0.01126924671127597</v>
+        <v>0.0006621292514400256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,122 +1092,122 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.61269008750774</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H11">
-        <v>3.61269008750774</v>
+        <v>14.961619</v>
       </c>
       <c r="I11">
-        <v>0.1524507497854908</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J11">
-        <v>0.1524507497854908</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.9376137592956</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N11">
-        <v>25.9376137592956</v>
+        <v>3.215092</v>
       </c>
       <c r="O11">
-        <v>0.4453526233484394</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P11">
-        <v>0.4453526233484394</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q11">
-        <v>93.70456012181158</v>
+        <v>5.344775728216446</v>
       </c>
       <c r="R11">
-        <v>93.70456012181158</v>
+        <v>48.10298155394801</v>
       </c>
       <c r="S11">
-        <v>0.06789434134840484</v>
+        <v>0.003294603209851071</v>
       </c>
       <c r="T11">
-        <v>0.06789434134840484</v>
+        <v>0.004946778281624417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.50697010378191</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H12">
-        <v>5.50697010378191</v>
+        <v>14.961619</v>
       </c>
       <c r="I12">
-        <v>0.2323868643676</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J12">
-        <v>0.2323868643676</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.3442741098935</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N12">
-        <v>4.3442741098935</v>
+        <v>14.125759</v>
       </c>
       <c r="O12">
-        <v>0.07459182210593297</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P12">
-        <v>0.07459182210593297</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q12">
-        <v>23.92378764581727</v>
+        <v>23.48269158264678</v>
       </c>
       <c r="R12">
-        <v>23.92378764581727</v>
+        <v>211.344224243821</v>
       </c>
       <c r="S12">
-        <v>0.01733415964666359</v>
+        <v>0.01447509773996596</v>
       </c>
       <c r="T12">
-        <v>0.01733415964666359</v>
+        <v>0.0217340585689805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.50697010378191</v>
+        <v>4.987206333333334</v>
       </c>
       <c r="H13">
-        <v>5.50697010378191</v>
+        <v>14.961619</v>
       </c>
       <c r="I13">
-        <v>0.2323868643676</v>
+        <v>0.1863671917178862</v>
       </c>
       <c r="J13">
-        <v>0.2323868643676</v>
+        <v>0.2328767238425594</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.9104196133373</v>
+        <v>26.1699</v>
       </c>
       <c r="N13">
-        <v>22.9104196133373</v>
+        <v>52.3398</v>
       </c>
       <c r="O13">
-        <v>0.3933752569338282</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P13">
-        <v>0.3933752569338282</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q13">
-        <v>126.1669958757472</v>
+        <v>130.5146910227</v>
       </c>
       <c r="R13">
-        <v>126.1669958757472</v>
+        <v>783.0881461362</v>
       </c>
       <c r="S13">
-        <v>0.09141524247865132</v>
+        <v>0.08045129334539868</v>
       </c>
       <c r="T13">
-        <v>0.09141524247865132</v>
+        <v>0.08053063050903851</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H14">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I14">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J14">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.743134322622252</v>
+        <v>4.344454</v>
       </c>
       <c r="N14">
-        <v>0.743134322622252</v>
+        <v>8.688908</v>
       </c>
       <c r="O14">
-        <v>0.01275972505225066</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P14">
-        <v>0.01275972505225066</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q14">
-        <v>4.092418497774963</v>
+        <v>24.93510234435</v>
       </c>
       <c r="R14">
-        <v>4.092418497774963</v>
+        <v>149.6106140661</v>
       </c>
       <c r="S14">
-        <v>0.002965192495085241</v>
+        <v>0.01537038641078292</v>
       </c>
       <c r="T14">
-        <v>0.002965192495085241</v>
+        <v>0.01538554394040329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H15">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I15">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J15">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.30518011884588</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N15">
-        <v>4.30518011884588</v>
+        <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.07392057255954868</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P15">
-        <v>0.07392057255954868</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q15">
-        <v>23.70849820588051</v>
+        <v>138.810781367775</v>
       </c>
       <c r="R15">
-        <v>23.70849820588051</v>
+        <v>1249.297032309975</v>
       </c>
       <c r="S15">
-        <v>0.01717817006937117</v>
+        <v>0.08556513296561029</v>
       </c>
       <c r="T15">
-        <v>0.01717817006937117</v>
+        <v>0.1284742697247964</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,60 +1402,60 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.50697010378191</v>
+        <v>5.739525</v>
       </c>
       <c r="H16">
-        <v>5.50697010378191</v>
+        <v>17.218575</v>
       </c>
       <c r="I16">
-        <v>0.2323868643676</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J16">
-        <v>0.2323868643676</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>25.9376137592956</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N16">
-        <v>25.9376137592956</v>
+        <v>0.430342</v>
       </c>
       <c r="O16">
-        <v>0.4453526233484394</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P16">
-        <v>0.4453526233484394</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q16">
-        <v>142.8376635358832</v>
+        <v>0.8233195558500002</v>
       </c>
       <c r="R16">
-        <v>142.8376635358832</v>
+        <v>7.409876002650001</v>
       </c>
       <c r="S16">
-        <v>0.1034940996778286</v>
+        <v>0.0005075070291755225</v>
       </c>
       <c r="T16">
-        <v>0.1034940996778286</v>
+        <v>0.0007620112619906935</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1461,60 +1464,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.72988150117391</v>
+        <v>5.739525</v>
       </c>
       <c r="H17">
-        <v>5.72988150117391</v>
+        <v>17.218575</v>
       </c>
       <c r="I17">
-        <v>0.2417934308997393</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J17">
-        <v>0.2417934308997393</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.3442741098935</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N17">
-        <v>4.3442741098935</v>
+        <v>3.215092</v>
       </c>
       <c r="O17">
-        <v>0.07459182210593297</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P17">
-        <v>0.07459182210593297</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q17">
-        <v>24.89217585830752</v>
+        <v>6.151033637100001</v>
       </c>
       <c r="R17">
-        <v>24.89217585830752</v>
+        <v>55.35930273390001</v>
       </c>
       <c r="S17">
-        <v>0.01803581258405655</v>
+        <v>0.003791593173443422</v>
       </c>
       <c r="T17">
-        <v>0.01803581258405655</v>
+        <v>0.005692998388110347</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1523,117 +1526,117 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.72988150117391</v>
+        <v>5.739525</v>
       </c>
       <c r="H18">
-        <v>5.72988150117391</v>
+        <v>17.218575</v>
       </c>
       <c r="I18">
-        <v>0.2417934308997393</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J18">
-        <v>0.2417934308997393</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.9104196133373</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N18">
-        <v>22.9104196133373</v>
+        <v>14.125759</v>
       </c>
       <c r="O18">
-        <v>0.3933752569338282</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P18">
-        <v>0.3933752569338282</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q18">
-        <v>131.2739895265933</v>
+        <v>27.025048974825</v>
       </c>
       <c r="R18">
-        <v>131.2739895265933</v>
+        <v>243.225440773425</v>
       </c>
       <c r="S18">
-        <v>0.09511555300509679</v>
+        <v>0.01665866214531558</v>
       </c>
       <c r="T18">
-        <v>0.09511555300509679</v>
+        <v>0.02501263516497669</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.72988150117391</v>
+        <v>5.739525</v>
       </c>
       <c r="H19">
-        <v>5.72988150117391</v>
+        <v>17.218575</v>
       </c>
       <c r="I19">
-        <v>0.2417934308997393</v>
+        <v>0.2144806299461176</v>
       </c>
       <c r="J19">
-        <v>0.2417934308997393</v>
+        <v>0.2680061118544322</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.743134322622252</v>
+        <v>26.1699</v>
       </c>
       <c r="N19">
-        <v>0.743134322622252</v>
+        <v>52.3398</v>
       </c>
       <c r="O19">
-        <v>0.01275972505225066</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P19">
-        <v>0.01275972505225066</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q19">
-        <v>4.258071608080646</v>
+        <v>150.2027952975</v>
       </c>
       <c r="R19">
-        <v>4.258071608080646</v>
+        <v>901.216771785</v>
       </c>
       <c r="S19">
-        <v>0.003085217697721042</v>
+        <v>0.09258734822178991</v>
       </c>
       <c r="T19">
-        <v>0.003085217697721042</v>
+        <v>0.09267865337415473</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1650,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.72988150117391</v>
+        <v>6.327592</v>
       </c>
       <c r="H20">
-        <v>5.72988150117391</v>
+        <v>12.655184</v>
       </c>
       <c r="I20">
-        <v>0.2417934308997393</v>
+        <v>0.2364561384787094</v>
       </c>
       <c r="J20">
-        <v>0.2417934308997393</v>
+        <v>0.1969771980923172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.30518011884588</v>
+        <v>4.344454</v>
       </c>
       <c r="N20">
-        <v>4.30518011884588</v>
+        <v>8.688908</v>
       </c>
       <c r="O20">
-        <v>0.07392057255954868</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P20">
-        <v>0.07392057255954868</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q20">
-        <v>24.6681719221967</v>
+        <v>27.489932374768</v>
       </c>
       <c r="R20">
-        <v>24.6681719221967</v>
+        <v>109.959729499072</v>
       </c>
       <c r="S20">
-        <v>0.0178735088532464</v>
+        <v>0.01694522353152547</v>
       </c>
       <c r="T20">
-        <v>0.0178735088532464</v>
+        <v>0.01130795605942354</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1712,303 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.327592</v>
+      </c>
+      <c r="H21">
+        <v>12.655184</v>
+      </c>
+      <c r="I21">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J21">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N21">
+        <v>72.555193</v>
+      </c>
+      <c r="O21">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P21">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q21">
+        <v>153.0332195950853</v>
+      </c>
+      <c r="R21">
+        <v>918.199317570512</v>
+      </c>
+      <c r="S21">
+        <v>0.09433206595182213</v>
+      </c>
+      <c r="T21">
+        <v>0.09442509166019418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.72988150117391</v>
-      </c>
-      <c r="H21">
-        <v>5.72988150117391</v>
-      </c>
-      <c r="I21">
-        <v>0.2417934308997393</v>
-      </c>
-      <c r="J21">
-        <v>0.2417934308997393</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="N21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="O21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="P21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="Q21">
-        <v>148.6194532639817</v>
-      </c>
-      <c r="R21">
-        <v>148.6194532639817</v>
-      </c>
-      <c r="S21">
-        <v>0.1076833387596185</v>
-      </c>
-      <c r="T21">
-        <v>0.1076833387596185</v>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.327592</v>
+      </c>
+      <c r="H22">
+        <v>12.655184</v>
+      </c>
+      <c r="I22">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J22">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.430342</v>
+      </c>
+      <c r="O22">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P22">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q22">
+        <v>0.9076761988213334</v>
+      </c>
+      <c r="R22">
+        <v>5.446057192928</v>
+      </c>
+      <c r="S22">
+        <v>0.0005595057810105893</v>
+      </c>
+      <c r="T22">
+        <v>0.0005600575384760024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.327592</v>
+      </c>
+      <c r="H23">
+        <v>12.655184</v>
+      </c>
+      <c r="I23">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J23">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N23">
+        <v>3.215092</v>
+      </c>
+      <c r="O23">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P23">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q23">
+        <v>6.781263472821334</v>
+      </c>
+      <c r="R23">
+        <v>40.68758083692801</v>
+      </c>
+      <c r="S23">
+        <v>0.004180076684313634</v>
+      </c>
+      <c r="T23">
+        <v>0.004184198873207559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.327592</v>
+      </c>
+      <c r="H24">
+        <v>12.655184</v>
+      </c>
+      <c r="I24">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J24">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N24">
+        <v>14.125759</v>
+      </c>
+      <c r="O24">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P24">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q24">
+        <v>29.79401321410934</v>
+      </c>
+      <c r="R24">
+        <v>178.764079284656</v>
+      </c>
+      <c r="S24">
+        <v>0.01836549493580074</v>
+      </c>
+      <c r="T24">
+        <v>0.01838360609618684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.327592</v>
+      </c>
+      <c r="H25">
+        <v>12.655184</v>
+      </c>
+      <c r="I25">
+        <v>0.2364561384787094</v>
+      </c>
+      <c r="J25">
+        <v>0.1969771980923172</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.1699</v>
+      </c>
+      <c r="N25">
+        <v>52.3398</v>
+      </c>
+      <c r="O25">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P25">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q25">
+        <v>165.5924498808</v>
+      </c>
+      <c r="R25">
+        <v>662.3697995232</v>
+      </c>
+      <c r="S25">
+        <v>0.1020737715942368</v>
+      </c>
+      <c r="T25">
+        <v>0.06811628786482907</v>
       </c>
     </row>
   </sheetData>
